--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>-13.09723300473699</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.41815033093124</v>
+        <v>-10.35213894000326</v>
       </c>
       <c r="F2" t="n">
-        <v>3.012850385310278</v>
+        <v>2.997191991111573</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.25540592212618</v>
+        <v>-16.17136643018514</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.53764792868275</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.92033179103133</v>
+        <v>-10.85676866073475</v>
       </c>
       <c r="F3" t="n">
-        <v>2.864069455816903</v>
+        <v>2.852391121682083</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.79381060083544</v>
+        <v>-15.72569134914994</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.78307977265209</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.16256557820895</v>
+        <v>-11.12214963933654</v>
       </c>
       <c r="F4" t="n">
-        <v>2.98404731905848</v>
+        <v>2.98328796549366</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.2441695429341</v>
+        <v>-15.19012451680345</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.91926514215135</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.6861660457581</v>
+        <v>-11.65169401237583</v>
       </c>
       <c r="F5" t="n">
-        <v>3.023271858372292</v>
+        <v>3.041286867082507</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.59484369119585</v>
+        <v>-14.5481696315651</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.983658530357504</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.44396162654004</v>
+        <v>-12.4039122721472</v>
       </c>
       <c r="F6" t="n">
-        <v>3.047387880206751</v>
+        <v>3.059537537243873</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.09569964535505</v>
+        <v>-14.04487532572347</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.028813008573444</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.70443299157618</v>
+        <v>-12.69048968904974</v>
       </c>
       <c r="F7" t="n">
-        <v>3.289962067258251</v>
+        <v>3.302425939563575</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.42896103083731</v>
+        <v>-13.3623473939786</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.099071996273171</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.50243503438507</v>
+        <v>-13.47848921248755</v>
       </c>
       <c r="F8" t="n">
-        <v>3.436255459211699</v>
+        <v>3.452018591833137</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.13581127790822</v>
+        <v>-13.05457353877531</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.226135294221972</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.13931010612084</v>
+        <v>-14.11459183835566</v>
       </c>
       <c r="F9" t="n">
-        <v>3.598154876152483</v>
+        <v>3.607555149592843</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.5324001322359</v>
+        <v>-12.42656195606339</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.440281578714134</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.12487247944029</v>
+        <v>-15.10869039312792</v>
       </c>
       <c r="F10" t="n">
-        <v>3.770371027732548</v>
+        <v>3.785270068366432</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.19405574989718</v>
+        <v>-12.08557292855063</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.751091609407952</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.99939903235907</v>
+        <v>-15.98347879210353</v>
       </c>
       <c r="F11" t="n">
-        <v>3.940361487829519</v>
+        <v>3.953925113573547</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.68356067749259</v>
+        <v>-11.57647873255012</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.175539121771382</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.78416475699497</v>
+        <v>-16.79293659989893</v>
       </c>
       <c r="F12" t="n">
-        <v>3.970369045942755</v>
+        <v>3.982021195471892</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.44276704362757</v>
+        <v>-11.33961278953761</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.705535493877967</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.39366382348868</v>
+        <v>-17.39654413011386</v>
       </c>
       <c r="F13" t="n">
-        <v>3.84198592427679</v>
+        <v>3.847589429893048</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.8568472145518</v>
+        <v>-10.74551027118576</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.344457603824531</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.32815312342257</v>
+        <v>-18.33882335023857</v>
       </c>
       <c r="F14" t="n">
-        <v>4.091289554988937</v>
+        <v>4.083460357889585</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.30090875898359</v>
+        <v>-10.17515719018881</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.067900167204675</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.15576995525944</v>
+        <v>-19.17501564043678</v>
       </c>
       <c r="F15" t="n">
-        <v>4.134284677521165</v>
+        <v>4.124753481052389</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.804579558253751</v>
+        <v>-9.679260035452749</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.862038973868507</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.18392158972303</v>
+        <v>-20.19668658499371</v>
       </c>
       <c r="F16" t="n">
-        <v>4.354549580530366</v>
+        <v>4.33137620450051</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.276514615435573</v>
+        <v>-9.152569784432952</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.691988649148952</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.16653819490309</v>
+        <v>-21.17236426966766</v>
       </c>
       <c r="F17" t="n">
-        <v>4.528651023719639</v>
+        <v>4.519957734632732</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.926334791327925</v>
+        <v>-8.790698533887644</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.536354726260968</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.94672161354439</v>
+        <v>-21.9414846924077</v>
       </c>
       <c r="F18" t="n">
-        <v>4.813513348949914</v>
+        <v>4.803615568001569</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.403703154189062</v>
+        <v>-8.27799086230281</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.365043690648465</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.62811051494203</v>
+        <v>-22.63896403399782</v>
       </c>
       <c r="F19" t="n">
-        <v>4.998455218892136</v>
+        <v>4.987693345956238</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.874891950108905</v>
+        <v>-7.736768155128694</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.166028102033418</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.36751141023135</v>
+        <v>-23.36768161016829</v>
       </c>
       <c r="F20" t="n">
-        <v>5.074181098528681</v>
+        <v>5.068577592912422</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.185621482400553</v>
+        <v>-7.035583691834372</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.925781717716736</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.05128311074617</v>
+        <v>-24.0362924239924</v>
       </c>
       <c r="F21" t="n">
-        <v>5.102931795569111</v>
+        <v>5.099868196704147</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.012449592713041</v>
+        <v>-6.869049599687616</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.646140133674987</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.76317707776503</v>
+        <v>-24.75716771076068</v>
       </c>
       <c r="F22" t="n">
-        <v>5.415392695189745</v>
+        <v>5.416518633234134</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.860199202966609</v>
+        <v>-6.724497484012119</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.327856747552243</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.31064481339465</v>
+        <v>-25.29522208064709</v>
       </c>
       <c r="F23" t="n">
-        <v>5.386615813543632</v>
+        <v>5.379415046980681</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.503787442706301</v>
+        <v>-6.377551458706378</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.982808869708507</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.74345016073643</v>
+        <v>-25.72735972054394</v>
       </c>
       <c r="F24" t="n">
-        <v>5.282348713712125</v>
+        <v>5.28336991333378</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.185382637595523</v>
+        <v>-6.065679712713621</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.619783248061507</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.10576654957836</v>
+        <v>-26.07803705215958</v>
       </c>
       <c r="F25" t="n">
-        <v>5.387872674616437</v>
+        <v>5.393109595753128</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.878315766745679</v>
+        <v>-5.768576084326331</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.253798561893332</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.44523686996147</v>
+        <v>-26.40106344017348</v>
       </c>
       <c r="F26" t="n">
-        <v>5.36802474350838</v>
+        <v>5.378577139598812</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.618250263097633</v>
+        <v>-5.517439531216342</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.8945458766276914</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.19213647142522</v>
+        <v>-26.15418188548706</v>
       </c>
       <c r="F27" t="n">
-        <v>5.477371656842476</v>
+        <v>5.485934022900965</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.163096354805026</v>
+        <v>-5.062652207403303</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.5545031148949134</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.38253783165244</v>
+        <v>-26.34284196943633</v>
       </c>
       <c r="F28" t="n">
-        <v>5.283736497813347</v>
+        <v>5.290099356994427</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.970168180129351</v>
+        <v>-4.884636165664355</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2417056087308337</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.50296083319064</v>
+        <v>-26.46672133892474</v>
       </c>
       <c r="F29" t="n">
-        <v>5.329559557759389</v>
+        <v>5.335948601546151</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.924829535388453</v>
+        <v>-4.836652875749428</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.0343639447212542</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.58144918872679</v>
+        <v>-26.52845154682348</v>
       </c>
       <c r="F30" t="n">
-        <v>5.320002176684929</v>
+        <v>5.327281497064929</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.909040218161332</v>
+        <v>-4.827344248428961</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.2683690555570772</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.2140006171709</v>
+        <v>-26.15732403816907</v>
       </c>
       <c r="F31" t="n">
-        <v>5.211126586253135</v>
+        <v>5.214975723288602</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.125285784198121</v>
+        <v>-5.041337938376974</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.4549019993031591</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.90914634550131</v>
+        <v>-25.83639241860984</v>
       </c>
       <c r="F32" t="n">
-        <v>5.257106753833277</v>
+        <v>5.249748879636226</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.203656309008694</v>
+        <v>-5.118962201925568</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5902985015791801</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.76771019790214</v>
+        <v>-25.68886835018927</v>
       </c>
       <c r="F33" t="n">
-        <v>5.160616481889756</v>
+        <v>5.152734915579036</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.272482545047647</v>
+        <v>-5.193666881940456</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6727990310209926</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.27748201029656</v>
+        <v>-25.20142882308897</v>
       </c>
       <c r="F34" t="n">
-        <v>5.208351018050689</v>
+        <v>5.206806126315366</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.506101596955407</v>
+        <v>-5.426866980157281</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7026710004594217</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.93229035357161</v>
+        <v>-24.86891051551481</v>
       </c>
       <c r="F35" t="n">
-        <v>5.041371787607314</v>
+        <v>5.043178525399473</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.627310136664107</v>
+        <v>-5.545548705417528</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.68358181871669</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.41789377492019</v>
+        <v>-24.35514236739979</v>
       </c>
       <c r="F36" t="n">
-        <v>5.242548113073277</v>
+        <v>5.230293717613422</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.646830760201121</v>
+        <v>-5.574875463782995</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6210350394449279</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.89539306080974</v>
+        <v>-23.82515285606388</v>
       </c>
       <c r="F37" t="n">
-        <v>5.200417082528603</v>
+        <v>5.194970684546445</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.703991754408097</v>
+        <v>-5.649279020832523</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5234922114166868</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.28448002560912</v>
+        <v>-23.21334954427002</v>
       </c>
       <c r="F38" t="n">
-        <v>5.00492281649595</v>
+        <v>4.994553712645303</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.748754337823958</v>
+        <v>-5.682284716296515</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3987355890581005</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.21384705177801</v>
+        <v>-23.13898526412902</v>
       </c>
       <c r="F39" t="n">
-        <v>5.151425685294864</v>
+        <v>5.144355841760332</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.754593504891369</v>
+        <v>-5.68004593251058</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2538084449435661</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.49229096526196</v>
+        <v>-22.41835873111473</v>
       </c>
       <c r="F40" t="n">
-        <v>5.323798944509029</v>
+        <v>5.319059530880325</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.802524425594927</v>
+        <v>-5.728120868545398</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.09414615133908036</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.96992117417993</v>
+        <v>-21.90718285896238</v>
       </c>
       <c r="F41" t="n">
-        <v>5.288502096047736</v>
+        <v>5.28504572809752</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.880554550531615</v>
+        <v>-5.816140420550322</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.07659549984751919</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.14600946404727</v>
+        <v>-21.08471130214231</v>
       </c>
       <c r="F42" t="n">
-        <v>5.434559826550032</v>
+        <v>5.429322905413342</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.119083216005022</v>
+        <v>-6.052574317569054</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.2555782369740544</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.65330683120459</v>
+        <v>-20.58912836267445</v>
       </c>
       <c r="F43" t="n">
-        <v>5.412983711466867</v>
+        <v>5.416204417965932</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.204340292110342</v>
+        <v>-6.151617588566711</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.4427137029254841</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.99278706053667</v>
+        <v>-19.92708988487689</v>
       </c>
       <c r="F44" t="n">
-        <v>5.290675418319463</v>
+        <v>5.296409846964139</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.233392112116132</v>
+        <v>-6.178286609455307</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.6364914615405363</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.47090168465978</v>
+        <v>-19.40575438571936</v>
       </c>
       <c r="F45" t="n">
-        <v>5.206439541835797</v>
+        <v>5.216127845938674</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.22776242189419</v>
+        <v>-6.182161931096458</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.8382505701918135</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.79471042749032</v>
+        <v>-18.73066288198859</v>
       </c>
       <c r="F46" t="n">
-        <v>5.438906471093485</v>
+        <v>5.439587270841255</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.457283583012489</v>
+        <v>-6.394309606343787</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.046373415479536</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.45026503202735</v>
+        <v>-18.38698993239328</v>
       </c>
       <c r="F47" t="n">
-        <v>5.475800580501469</v>
+        <v>5.468809290783987</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.714154564767155</v>
+        <v>-6.643390667907625</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.263242038652554</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.80904331574813</v>
+        <v>-17.7563206122045</v>
       </c>
       <c r="F48" t="n">
-        <v>5.388265443701688</v>
+        <v>5.377425016948739</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.878305857796716</v>
+        <v>-6.808602437467367</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.486678576535797</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.32989121634664</v>
+        <v>-17.27113296119297</v>
       </c>
       <c r="F49" t="n">
-        <v>5.412852788438451</v>
+        <v>5.405913867932336</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.19932912347584</v>
+        <v>-7.132872594251238</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.718700855479747</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.69708785079465</v>
+        <v>-16.65474734340451</v>
       </c>
       <c r="F50" t="n">
-        <v>5.270303795097736</v>
+        <v>5.261034444685794</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.41709339664227</v>
+        <v>-7.345295207858244</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.956181672880339</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90912760426537</v>
+        <v>-15.86623722015587</v>
       </c>
       <c r="F51" t="n">
-        <v>5.196201361013567</v>
+        <v>5.19682979154997</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.492727630158921</v>
+        <v>-7.403411940172666</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.200364425948897</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.42188446170769</v>
+        <v>-15.38590681349863</v>
       </c>
       <c r="F52" t="n">
-        <v>5.105707363771557</v>
+        <v>5.102329549638391</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.73976629247945</v>
+        <v>-7.661016090886468</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.446586093244546</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.83969593894181</v>
+        <v>-14.80367901382422</v>
       </c>
       <c r="F53" t="n">
-        <v>5.03883188085602</v>
+        <v>5.044566309500696</v>
       </c>
       <c r="G53" t="n">
-        <v>-8.003445271711813</v>
+        <v>-7.919733087341816</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.695150796744714</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.11219594693562</v>
+        <v>-14.08749077147328</v>
       </c>
       <c r="F54" t="n">
-        <v>4.877377602211854</v>
+        <v>4.875151910728761</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.305105021488023</v>
+        <v>-8.21201874828335</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.939856061038858</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.56302621193658</v>
+        <v>-13.54499811092352</v>
       </c>
       <c r="F55" t="n">
-        <v>4.959073571944224</v>
+        <v>4.955224434908757</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.619333381992291</v>
+        <v>-8.528682277116179</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.18029497595286</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.24117813117843</v>
+        <v>-13.21759889376048</v>
       </c>
       <c r="F56" t="n">
-        <v>4.85679650214466</v>
+        <v>4.853366318800128</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.652679477330167</v>
+        <v>-8.554461021411537</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.409542283705237</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.92338866430121</v>
+        <v>-12.90864673130143</v>
       </c>
       <c r="F57" t="n">
-        <v>4.789161665664304</v>
+        <v>4.771906010518909</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.003081870586124</v>
+        <v>-8.905347829872639</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.627750835001304</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.42004198924821</v>
+        <v>-12.41382314539839</v>
       </c>
       <c r="F58" t="n">
-        <v>4.679840936935891</v>
+        <v>4.669052879394309</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.437707048022904</v>
+        <v>-9.346938112421217</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.828755809772851</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.10978059650499</v>
+        <v>-12.10354866035232</v>
       </c>
       <c r="F59" t="n">
-        <v>4.670205002044381</v>
+        <v>4.659757344376684</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.798661837369291</v>
+        <v>-9.707225194322676</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.0147313985932</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.78786705423263</v>
+        <v>-11.77024481460766</v>
       </c>
       <c r="F60" t="n">
-        <v>4.574657375905463</v>
+        <v>4.560779534893234</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.858454384447455</v>
+        <v>-9.786944226325947</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.181210994227571</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.63851006341421</v>
+        <v>-11.62605928341173</v>
       </c>
       <c r="F61" t="n">
-        <v>4.426164477074606</v>
+        <v>4.412208082245327</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.259432343581</v>
+        <v>-10.188458969876</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.332324706603135</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.60165523091475</v>
+        <v>-11.58237026882889</v>
       </c>
       <c r="F62" t="n">
-        <v>4.315167933582453</v>
+        <v>4.302337476797562</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.44641661276653</v>
+        <v>-10.37245819401362</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.466559824185194</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.37062845496966</v>
+        <v>-11.33775368253408</v>
       </c>
       <c r="F63" t="n">
-        <v>4.408175652970075</v>
+        <v>4.38492372312317</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.66694336183256</v>
+        <v>-10.5942548964553</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.589872565744971</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.3362218831016</v>
+        <v>-11.29877789697426</v>
       </c>
       <c r="F64" t="n">
-        <v>4.297833724620008</v>
+        <v>4.282672837929289</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.90311541279446</v>
+        <v>-10.82007093586939</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.702760659890944</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.42676824955498</v>
+        <v>-11.39120955503685</v>
       </c>
       <c r="F65" t="n">
-        <v>4.30558436790231</v>
+        <v>4.294874864177777</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.73008753843821</v>
+        <v>-10.6751129588058</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.81100570424881</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.28829096239804</v>
+        <v>-11.25481394403175</v>
       </c>
       <c r="F66" t="n">
-        <v>4.328391159452597</v>
+        <v>4.319383655097489</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.90552439651734</v>
+        <v>-10.85318136975612</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.91491062088042</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.57478982548353</v>
+        <v>-11.54305408339519</v>
       </c>
       <c r="F67" t="n">
-        <v>4.028184655291818</v>
+        <v>4.016375398128581</v>
       </c>
       <c r="G67" t="n">
-        <v>-11.01665186303791</v>
+        <v>-10.96415172864259</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.018850602833732</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.56135712276792</v>
+        <v>-11.53115318011206</v>
       </c>
       <c r="F68" t="n">
-        <v>4.172042878916704</v>
+        <v>4.150257286988071</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.80849734015731</v>
+        <v>-10.74975217730648</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.12327390870101</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.53684833184821</v>
+        <v>-11.49491368584616</v>
       </c>
       <c r="F69" t="n">
-        <v>4.130173694428864</v>
+        <v>4.118940498590662</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.92051508327111</v>
+        <v>-10.84423932691522</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.23229613271168</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.73041802936313</v>
+        <v>-11.70325150096655</v>
       </c>
       <c r="F70" t="n">
-        <v>3.872779020560529</v>
+        <v>3.861781486173479</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.98240239880395</v>
+        <v>-10.91237167090356</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.345925703421035</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.68929510613727</v>
+        <v>-11.65865911748763</v>
       </c>
       <c r="F71" t="n">
-        <v>3.800902277959453</v>
+        <v>3.781499485148015</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.98105389161126</v>
+        <v>-10.91572330043104</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.466283357031476</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.85296198396169</v>
+        <v>-11.82961840799489</v>
       </c>
       <c r="F72" t="n">
-        <v>3.82446842307456</v>
+        <v>3.810564397456647</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.16195023997538</v>
+        <v>-11.09601740286445</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.590780852787537</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.28200984038789</v>
+        <v>-12.24879466807843</v>
       </c>
       <c r="F73" t="n">
-        <v>3.953689452122396</v>
+        <v>3.929468691865203</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.92736235765734</v>
+        <v>-10.86971694824522</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.719189880423499</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.60346515206079</v>
+        <v>-12.56668887337838</v>
       </c>
       <c r="F74" t="n">
-        <v>3.929599614893621</v>
+        <v>3.916481127446211</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.83282283883723</v>
+        <v>-10.77136756929817</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.847725547671727</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.87135985280819</v>
+        <v>-12.84775443078456</v>
       </c>
       <c r="F75" t="n">
-        <v>3.89349104365614</v>
+        <v>3.876916188258515</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.76857890879288</v>
+        <v>-10.70487176316504</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.974893680572638</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.12728818875825</v>
+        <v>-13.09987290660768</v>
       </c>
       <c r="F76" t="n">
-        <v>3.911322760126571</v>
+        <v>3.886447384727291</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.71415420587983</v>
+        <v>-10.64903309154508</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.095801761752621</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.55680736808676</v>
+        <v>-13.5355454682718</v>
       </c>
       <c r="F77" t="n">
-        <v>3.910275375899233</v>
+        <v>3.895559627505133</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.49315613391149</v>
+        <v>-10.42849325017621</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.209286136150674</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.30619769044432</v>
+        <v>-14.29148194205022</v>
       </c>
       <c r="F78" t="n">
-        <v>3.87945609500981</v>
+        <v>3.868249083777292</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.18073451119938</v>
+        <v>-10.11219630582295</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.312415887182699</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.924219846088</v>
+        <v>-14.90438500728278</v>
       </c>
       <c r="F79" t="n">
-        <v>4.055023876117356</v>
+        <v>4.029624808604408</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.21084680773535</v>
+        <v>-10.13749063491316</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.406722970871384</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.31190911783719</v>
+        <v>-15.29223138666607</v>
       </c>
       <c r="F80" t="n">
-        <v>4.072567561925269</v>
+        <v>4.058873013152824</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.795166192510552</v>
+        <v>-9.722137327259404</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.49053860053568</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.85012059535771</v>
+        <v>-15.83988241453548</v>
       </c>
       <c r="F81" t="n">
-        <v>4.063874272838363</v>
+        <v>4.048111140216925</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.606283539412969</v>
+        <v>-9.534236596874949</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.565162682050699</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.67498804359781</v>
+        <v>-16.66958092252418</v>
       </c>
       <c r="F82" t="n">
-        <v>3.965839109159518</v>
+        <v>3.942901394580814</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.371171964981253</v>
+        <v>-9.29295854780478</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.629201129701368</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.64241757748148</v>
+        <v>-17.6416713162195</v>
       </c>
       <c r="F83" t="n">
-        <v>4.067749594479514</v>
+        <v>4.047639817314622</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.178361621031152</v>
+        <v>-9.102059680069573</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.683026044687094</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.57646173911874</v>
+        <v>-18.58036324536558</v>
       </c>
       <c r="F84" t="n">
-        <v>4.004121002668725</v>
+        <v>3.984613471434553</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.875445010182137</v>
+        <v>-8.794023978809442</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.725261695133454</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.61402673932553</v>
+        <v>-19.61754856878996</v>
       </c>
       <c r="F85" t="n">
-        <v>4.155677500364546</v>
+        <v>4.14622485771282</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.661097828057397</v>
+        <v>-8.581837026653588</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.755472609996913</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.79550233236858</v>
+        <v>-20.80025483830012</v>
       </c>
       <c r="F86" t="n">
-        <v>4.162642605476345</v>
+        <v>4.15214257859728</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.519530757429813</v>
+        <v>-8.437284910978089</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.771954972583469</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.00411826920252</v>
+        <v>-21.99949668629939</v>
       </c>
       <c r="F87" t="n">
-        <v>4.118757206350879</v>
+        <v>4.107471641301311</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.364321507241151</v>
+        <v>-8.280046353848959</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.77281506795234</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.42784074172602</v>
+        <v>-23.4224074360467</v>
       </c>
       <c r="F88" t="n">
-        <v>4.32469913005123</v>
+        <v>4.32561559125015</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.282586260600254</v>
+        <v>-8.191450740518999</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.754141690769203</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.93654535199516</v>
+        <v>-24.92711889394912</v>
       </c>
       <c r="F89" t="n">
-        <v>4.206946958292745</v>
+        <v>4.193592809394185</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.003170333352136</v>
+        <v>-7.920859025386205</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.711003060411548</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.59111130822398</v>
+        <v>-26.58285006513085</v>
       </c>
       <c r="F90" t="n">
-        <v>4.302887353516914</v>
+        <v>4.310507073770799</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.191647125061625</v>
+        <v>-8.10491061873519</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.636857966950867</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.26260561202715</v>
+        <v>-28.27214990079877</v>
       </c>
       <c r="F91" t="n">
-        <v>4.47981673412</v>
+        <v>4.479083565160863</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.888835252635343</v>
+        <v>-7.800737146813368</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.525303954314679</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.25153589053081</v>
+        <v>-30.25097292150861</v>
       </c>
       <c r="F92" t="n">
-        <v>4.359603209427271</v>
+        <v>4.3624049622354</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.088872547754075</v>
+        <v>-7.993338013918001</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.370894436744547</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.10433240408619</v>
+        <v>-32.09929186749213</v>
       </c>
       <c r="F93" t="n">
-        <v>4.265024413698642</v>
+        <v>4.280604254080297</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.993626044580519</v>
+        <v>-7.872705535534337</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.169895003553684</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.10059437218122</v>
+        <v>-34.09232003678525</v>
       </c>
       <c r="F94" t="n">
-        <v>4.582119988525248</v>
+        <v>4.586807032942586</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.793195980376534</v>
+        <v>-7.688680126791035</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.92218811791028</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.17463771145894</v>
+        <v>-36.18474496925275</v>
       </c>
       <c r="F95" t="n">
-        <v>4.257038108965189</v>
+        <v>4.271413457485405</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.601681774407766</v>
+        <v>-7.476820482206223</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.627905841144355</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.42778375361147</v>
+        <v>-38.44463354736877</v>
       </c>
       <c r="F96" t="n">
-        <v>4.150178733171021</v>
+        <v>4.169555341376776</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.661094644703518</v>
+        <v>-7.545502702913919</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.29397136461249</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.357248792608</v>
+        <v>-40.39320025621139</v>
       </c>
       <c r="F97" t="n">
-        <v>3.928316569215131</v>
+        <v>3.952144560387073</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.241577984746089</v>
+        <v>-7.128604503524835</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.924339100469865</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.91879712050024</v>
+        <v>-42.96138638164437</v>
       </c>
       <c r="F98" t="n">
-        <v>3.910223006687866</v>
+        <v>3.936748012245203</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.26115097749447</v>
+        <v>-7.14858335766131</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.537557134607262</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.04579882477274</v>
+        <v>-45.08879394730496</v>
       </c>
       <c r="F99" t="n">
-        <v>3.785584283634634</v>
+        <v>3.831119312918157</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.968223793713691</v>
+        <v>-6.860932371925746</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.140969487653068</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.28722725588192</v>
+        <v>-47.34451917311732</v>
       </c>
       <c r="F100" t="n">
-        <v>3.67398549421176</v>
+        <v>3.720227507848737</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.756861656636866</v>
+        <v>-6.666734243874424</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.771861686556522</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.68012053856704</v>
+        <v>-49.73228027308848</v>
       </c>
       <c r="F101" t="n">
-        <v>3.382367540715154</v>
+        <v>3.436176905394648</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.748390936698269</v>
+        <v>-6.668122027975646</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.42968726090739</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.08436484781593</v>
+        <v>-52.14259941085593</v>
       </c>
       <c r="F102" t="n">
-        <v>2.971295416090639</v>
+        <v>3.015337922850206</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.801349301693051</v>
+        <v>-6.7000803392123</v>
       </c>
     </row>
   </sheetData>
